--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2664484.722844719</v>
+        <v>2662227.700935636</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836223</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>108.8074282022286</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.75305087075586</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.9124227879787</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>363.5687190723342</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>109.9123666458457</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>47.86017852792622</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.220846587376188</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>294.5526453824716</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.3734398702014</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.2123634091011</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>172.2075379833797</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.86810533549494</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.60662835550642</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>13.33875050281465</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,7 +1822,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>203.6809214449986</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.89138480951658</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>10.24879669781168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>13.89072837997162</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.2507337450023</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>198.3282681603476</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>84.69473660442824</v>
       </c>
       <c r="T28" t="n">
-        <v>162.5701994818067</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,16 +2953,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>60.31323908025468</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>190.6045469959059</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292646</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881761</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868246566</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102752</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120.7640381573251</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.9321526700476</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3244,16 +3244,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>198.6786992912749</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534541</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292646</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881761</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247767</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102752</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935317</v>
+        <v>178.7757248935311</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102217</v>
       </c>
       <c r="D37" t="n">
-        <v>135.0675742074657</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706227</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143213</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164144</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430363</v>
+        <v>188.7127700430358</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877631</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172073</v>
+        <v>285.1555829172067</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354224</v>
+        <v>251.0813880354218</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481854</v>
+        <v>285.4667430481849</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636892</v>
+        <v>93.40896256663591</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,10 +3518,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292646</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881761</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247767</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102752</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404298</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124571</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145504</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128495</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124604</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145497</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.4943954681378</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="C4" t="n">
-        <v>506.4943954681378</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406185</v>
+        <v>70.01613615165607</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>769.2477369710693</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>769.2477369710693</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>2136.285654263387</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>498.1369047015218</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1280.556556803302</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>911.5940398628907</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>1667.156396867424</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036444</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>524.7650569960363</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587809</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,25 +5042,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427193</v>
+        <v>657.3479225192157</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867998</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>2985.817436667298</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>481.6968904858343</v>
+        <v>399.0634049978498</v>
       </c>
       <c r="C13" t="n">
-        <v>312.7607075579274</v>
+        <v>230.1272220699429</v>
       </c>
       <c r="D13" t="n">
-        <v>312.7607075579274</v>
+        <v>230.1272220699429</v>
       </c>
       <c r="E13" t="n">
-        <v>312.7607075579274</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F13" t="n">
-        <v>165.8707600600171</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8707600600171</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8707600600171</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838516</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858343</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y13" t="n">
-        <v>481.6968904858343</v>
+        <v>399.0634049978498</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,22 +5279,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M14" t="n">
-        <v>2383.05734389077</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>3362.809616117416</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>730.2297869963112</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C16" t="n">
-        <v>561.2936040684043</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D16" t="n">
-        <v>411.1769646560686</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736755</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736755</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1942.869980748325</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1721.103365317851</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384226</v>
+        <v>1432.000498443495</v>
       </c>
       <c r="V16" t="n">
-        <v>958.2193378943285</v>
+        <v>1177.316010237608</v>
       </c>
       <c r="W16" t="n">
-        <v>958.2193378943285</v>
+        <v>1177.316010237608</v>
       </c>
       <c r="X16" t="n">
-        <v>730.2297869963112</v>
+        <v>949.3264593395904</v>
       </c>
       <c r="Y16" t="n">
-        <v>730.2297869963112</v>
+        <v>728.5338801960603</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,43 +5516,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,16 +5595,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,22 +5622,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.8112129900688</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8112129900688</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D19" t="n">
-        <v>631.6945735777331</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E19" t="n">
-        <v>483.78147999534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>336.8915324974296</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>169.1886958721485</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>169.1886958721485</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5677,7 +5677,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.658977898817</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.241807861856</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.252256963839</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.4596778203087</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5753,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1741.136558882383</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M20" t="n">
-        <v>2274.668463554307</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>3254.420735780953</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,28 +5829,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>737.3554149786652</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>568.4192320507583</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>568.4192320507583</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>420.5061384683652</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>273.6161909704548</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>105.9133543451739</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,49 +5911,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057173</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.554715057173</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.137545020213</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X22" t="n">
-        <v>958.1479941221953</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.3554149786652</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,25 +5987,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176192</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
         <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2628.734306600802</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N23" t="n">
-        <v>3175.513123659584</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O23" t="n">
-        <v>4055.477773989039</v>
+        <v>4055.47777398904</v>
       </c>
       <c r="P23" t="n">
-        <v>4450.252140346217</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>877.1197344942215</v>
+        <v>653.7478932037368</v>
       </c>
       <c r="C25" t="n">
-        <v>708.1835515663146</v>
+        <v>484.8117102758299</v>
       </c>
       <c r="D25" t="n">
-        <v>558.0669121539788</v>
+        <v>484.8117102758299</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715857</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.576850674229</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.892362468342</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.892362468342</v>
+        <v>874.5404723472669</v>
       </c>
       <c r="X25" t="n">
-        <v>1279.560778467991</v>
+        <v>874.5404723472669</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.768199324461</v>
+        <v>653.7478932037368</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>407.2827125145384</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>741.1020862043849</v>
       </c>
       <c r="L26" t="n">
-        <v>1296.118160724479</v>
+        <v>1605.62090185774</v>
       </c>
       <c r="M26" t="n">
-        <v>2274.668463554308</v>
+        <v>2584.171204687568</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.420735780954</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,13 +6303,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1702.300686153336</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1702.300686153336</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1447.616197947449</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1158.199027910488</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>930.2094770124706</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>709.4168978689405</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1518.899775139038</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>2497.450077968866</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N29" t="n">
-        <v>3044.228895027648</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4246.247123084118</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4704.725325593106</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6534,28 +6534,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902952</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>472.0994283734975</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C31" t="n">
-        <v>472.0994283734975</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>472.0994283734975</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>324.1863347911044</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,16 +6619,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6652,19 +6652,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>874.5404723472674</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>874.5404723472674</v>
+        <v>427.3261386909699</v>
       </c>
       <c r="Y31" t="n">
-        <v>653.7478932037372</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277718</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176165</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770969</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422546</v>
+        <v>2265.590483597811</v>
       </c>
       <c r="N32" t="n">
-        <v>2996.062531649192</v>
+        <v>2812.369300656591</v>
       </c>
       <c r="O32" t="n">
-        <v>3876.027181978647</v>
+        <v>3692.333950986043</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432987</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973078</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161808</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549296</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494741</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763591</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089771</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468446</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390111</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193571</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320208</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454335</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008787</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.96131142684</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902942</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549541</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142056</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635536</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313391</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447807</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216064</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487863</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828233</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517376</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>877.1197344942216</v>
+        <v>560.8310435707793</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>391.8948606428725</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839445</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839445</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953296</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442052</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104698</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862225</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689052</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258577</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384221</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384221</v>
       </c>
       <c r="W34" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384221</v>
       </c>
       <c r="X34" t="n">
-        <v>999.1036114208126</v>
+        <v>963.2720875445492</v>
       </c>
       <c r="Y34" t="n">
-        <v>999.1036114208126</v>
+        <v>742.4795084010191</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074188</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>913.1101661838707</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1364.144379432277</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>1897.676284104199</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2877.428556330843</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660296</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107239</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390111</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193571</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320208</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454347</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008799</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.961311426852</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.7791019271859</v>
+        <v>359.6890454904691</v>
       </c>
       <c r="C37" t="n">
-        <v>543.7791019271859</v>
+        <v>191.8197870963057</v>
       </c>
       <c r="D37" t="n">
-        <v>407.3472087883317</v>
+        <v>191.8197870963057</v>
       </c>
       <c r="E37" t="n">
-        <v>407.3472087883317</v>
+        <v>191.8197870963057</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3472087883317</v>
+        <v>191.8197870963057</v>
       </c>
       <c r="G37" t="n">
-        <v>240.7112966967937</v>
+        <v>191.8197870963057</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>191.8197870963057</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308515</v>
+        <v>141.7293596308517</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152493</v>
+        <v>346.7622353152494</v>
       </c>
       <c r="L37" t="n">
-        <v>664.367726499267</v>
+        <v>664.3677264992667</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7108,37 +7108,37 @@
         <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349445</v>
+        <v>1685.326515640715</v>
       </c>
       <c r="T37" t="n">
-        <v>1774.090048349445</v>
+        <v>1464.626824743985</v>
       </c>
       <c r="U37" t="n">
-        <v>1486.054106008831</v>
+        <v>1176.590882403372</v>
       </c>
       <c r="V37" t="n">
-        <v>1232.436542336687</v>
+        <v>922.9733187312287</v>
       </c>
       <c r="W37" t="n">
-        <v>944.0862968334698</v>
+        <v>634.6230732280115</v>
       </c>
       <c r="X37" t="n">
-        <v>944.0862968334698</v>
+        <v>634.6230732280115</v>
       </c>
       <c r="Y37" t="n">
-        <v>724.3606422236826</v>
+        <v>540.2705857869652</v>
       </c>
     </row>
     <row r="38">
@@ -7154,55 +7154,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277718</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.56914656307</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811476</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483398</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>3070.887536710042</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3950.852187039495</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4345.626553396671</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604875</v>
@@ -7227,52 +7227,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390111</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193571</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320208</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454335</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008787</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.96131142684</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7290,7 +7290,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678214993</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416723</v>
+        <v>667.0286178416657</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774099</v>
+        <v>564.3616113774033</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430901</v>
+        <v>463.8981507430835</v>
       </c>
       <c r="F40" t="n">
-        <v>364.457836193253</v>
+        <v>364.4578361932467</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160449</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819759</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477362</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490185</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499205</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901878</v>
+        <v>1191.409234901875</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.322996860149</v>
+        <v>1579.322996860145</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.157981032969</v>
+        <v>1925.157981032964</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719035</v>
+        <v>2204.27086671903</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.38654812395</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829552</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604451</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.45249012205</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195767</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937954</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849066</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899122</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036656</v>
       </c>
     </row>
     <row r="41">
@@ -7388,58 +7388,58 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>323.5285488293701</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>657.3479225192166</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844496</v>
       </c>
       <c r="N41" t="n">
-        <v>3070.887536710053</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604875</v>
@@ -7464,64 +7464,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D43" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430899</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160452</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819763</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477368</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7594,25 +7594,25 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K44" t="n">
         <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N44" t="n">
-        <v>2883.993034926781</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604875</v>
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7801,7 +7801,7 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J46" t="n">
         <v>187.1890521477367</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>39.48321557772658</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8699,19 +8699,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>102.8529310510287</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>370.4516004729539</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>32.86979469803862</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>354.4836849406616</v>
+        <v>64.28566532692452</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>20.70318561719034</v>
       </c>
       <c r="Q23" t="n">
-        <v>20.70318561719168</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.0833809162814</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>229.1155640189945</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>285.0508825989992</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>14.45386895940618</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>82.7015910655756</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>201.9664098701125</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.200817223434569e-11</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>297.8289162490981</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>251.1867816683982</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>198.7154374299952</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>60.66917680435969</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>39.48321557772752</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>294.8707872801647</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,22 +11300,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>374.169394802195</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>71.00061210864607</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>109.5658573110742</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>26.74579205433171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>176.4302748286273</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>48.45672187882937</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>71.67627119164521</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>23.46103560032151</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5062182165091</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>272.3211098256413</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2.183228901566906</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>27.38138722868959</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="T28" t="n">
-        <v>56.9787497943625</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>85.10780894267657</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>35.10510839313127</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.06794202461217</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>27.0309560977623</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102223</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>12.49164352234109</v>
+        <v>147.5592177298062</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581636</v>
+        <v>145.377707358163</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345257</v>
+        <v>144.3647927345251</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706221</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259147</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143252</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164176</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877636</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006316</v>
+        <v>224.653400100631</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.1194354970527</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5.897504706808832e-12</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-2.791100811593401e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-3.643752094505521e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.918465386552271e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791665.0628191272</v>
+        <v>791665.0628191273</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792254.3209423951</v>
+        <v>792254.3209423954</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.769674824</v>
       </c>
       <c r="F2" t="n">
         <v>615476.7696748241</v>
       </c>
       <c r="G2" t="n">
-        <v>615476.769674823</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="H2" t="n">
+        <v>615476.7696748235</v>
+      </c>
+      <c r="I2" t="n">
         <v>615476.769674824</v>
-      </c>
-      <c r="I2" t="n">
-        <v>615476.7696748241</v>
       </c>
       <c r="J2" t="n">
         <v>615476.7696748237</v>
       </c>
       <c r="K2" t="n">
-        <v>615476.7696748234</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="L2" t="n">
         <v>615476.7696748236</v>
       </c>
       <c r="M2" t="n">
-        <v>615945.1543369087</v>
+        <v>615945.1543369088</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-7.72093353928843e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696692</v>
+        <v>130487.3190696697</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.1050641496</v>
+        <v>36735.10506414912</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.310193849552888e-09</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.6868571279</v>
-      </c>
-      <c r="C4" t="n">
-        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231919018</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811457</v>
+        <v>18496.05294811495</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740917</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.653297409</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26470,37 +26470,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.5182537136</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955462</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219868.2724902622</v>
+        <v>-219868.2724902621</v>
       </c>
       <c r="C6" t="n">
+        <v>370099.6067242824</v>
+      </c>
+      <c r="D6" t="n">
         <v>370099.6067242823</v>
       </c>
-      <c r="D6" t="n">
-        <v>370099.6067242819</v>
-      </c>
       <c r="E6" t="n">
-        <v>-226432.6548914862</v>
+        <v>-226499.8503817123</v>
       </c>
       <c r="F6" t="n">
-        <v>500944.7591019205</v>
+        <v>500877.5636116947</v>
       </c>
       <c r="G6" t="n">
-        <v>500944.7591019195</v>
+        <v>500877.5636116943</v>
       </c>
       <c r="H6" t="n">
-        <v>500944.7591019204</v>
+        <v>500877.5636116941</v>
       </c>
       <c r="I6" t="n">
-        <v>500944.7591019205</v>
+        <v>500877.5636116946</v>
       </c>
       <c r="J6" t="n">
-        <v>324521.5399093272</v>
+        <v>324454.3444191014</v>
       </c>
       <c r="K6" t="n">
-        <v>500944.7591019197</v>
+        <v>500877.5636116942</v>
       </c>
       <c r="L6" t="n">
-        <v>500944.75910192</v>
+        <v>500877.5636116965</v>
       </c>
       <c r="M6" t="n">
-        <v>370489.4657395703</v>
+        <v>370423.7811676086</v>
       </c>
       <c r="N6" t="n">
-        <v>465633.9422691591</v>
+        <v>465633.9422691592</v>
       </c>
       <c r="O6" t="n">
-        <v>502369.0473333081</v>
+        <v>502369.0473333059</v>
       </c>
       <c r="P6" t="n">
-        <v>502369.0473333084</v>
+        <v>502369.0473333088</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26765,13 +26765,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545555</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018701</v>
+        <v>45.91888133018641</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,10 +26984,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-2.213503611310397e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>260.9236724762404</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.0789293111814</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>132.7030502302337</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>18.36165099992758</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>259.8187340326234</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>119.3866425707016</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647186</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>60.1303962382114</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,10 +27907,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>167.8644987858522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.61961677283622</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>52.82756747470461</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.353712668104585e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405556</v>
+        <v>1.05625528840616</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681584</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953977</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003792</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623171</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.267349057497</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990094998</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099036</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746394</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781675</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563561</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806919</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752233</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.956561913878</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233457</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837906</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970233</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002913</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905537</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238303</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898469</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430532</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311874</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297386</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098811</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316423</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085993</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802162</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712188</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112269</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681584</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953977</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003792</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623171</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.267349057497</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990094998</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099036</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746394</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781675</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563561</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806919</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752233</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.956561913878</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233575</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837906</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970233</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002913</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905537</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238303</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898469</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430532</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311874</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742</v>
       </c>
       <c r="J37" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297386</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098811</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316423</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085993</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802162</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712188</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112269</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681584</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953977</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003792</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623171</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.267349057497</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990094998</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099036</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746394</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781675</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563561</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806919</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752233</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.956561913878</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233457</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837906</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970233</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584003034</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905537</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238303</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898469</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430532</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311874</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297386</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098811</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316423</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085993</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802162</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712188</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112269</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>376.6745021331271</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>655.1547664639399</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>909.3727163031805</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306618</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>370.0610812534391</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>810.0737993329935</v>
+        <v>519.8757797192567</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>419.4651718365622</v>
       </c>
       <c r="Q23" t="n">
-        <v>271.4974904209111</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>314.8703818849939</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>684.7056784113264</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>740.6409969913313</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>74.06706750163096</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407852</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553987</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427803</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>621.6227068957999</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.301835412909</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509622</v>
       </c>
       <c r="P32" t="n">
-        <v>600.7283960894844</v>
+        <v>720.5606943908524</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803718</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152064</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597642</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340039</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013274</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004573</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525789</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859611</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127262</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130658</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443189</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701972</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934829</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675391</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451097</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789314</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687114</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>635.0202028044968</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923299</v>
       </c>
       <c r="M35" t="n">
-        <v>790.107897498625</v>
+        <v>538.9211158302243</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248931</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509622</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908524</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.794304803718</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222393</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597642</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340039</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013392</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004573</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525789</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859611</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127262</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147178</v>
+        <v>46.63467190147196</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586037</v>
+        <v>320.8136274586034</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818894</v>
+        <v>348.689634681889</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559456</v>
+        <v>345.9132014559453</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110453</v>
+        <v>303.4093855110451</v>
       </c>
       <c r="P37" t="n">
-        <v>236.013326433516</v>
+        <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629921</v>
+        <v>79.45049382629931</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407852</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265634</v>
       </c>
       <c r="L38" t="n">
-        <v>654.3055518223274</v>
+        <v>455.5901143923299</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302243</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248931</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509622</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193698</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>311.4634816080777</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152064</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597642</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340039</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013274</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004573</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525789</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859732</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127262</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165837</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629114</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887898</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120754</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861317</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412315</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637023</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564857</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>230.2702165464401</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>802.9237881683838</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38020,22 +38020,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>882.2223956904141</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>469.7625983280179</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38175,7 +38175,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
